--- a/chemistry/soil_core_bulk_density_deposition.xlsx
+++ b/chemistry/soil_core_bulk_density_deposition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4rest\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4rest\Documents\GitHub\nishnabotna\chemistry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4380CEA-E537-454C-8ECC-AC3A49E67198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC2F4D1-B118-41CF-9ADF-9E8C25055E8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1272" windowWidth="15660" windowHeight="11088" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Tin</t>
   </si>
@@ -281,6 +281,15 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>radius avg</t>
   </si>
 </sst>
 </file>
@@ -608,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection sqref="A1:I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,11 +681,11 @@
         <v>301.54000000000002</v>
       </c>
       <c r="H2">
-        <v>1380.293764603422</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I2">
         <f>G2/H2</f>
-        <v>0.21846074200489976</v>
+        <v>0.87384296801959904</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -702,11 +711,11 @@
         <v>272.8</v>
       </c>
       <c r="H3">
-        <v>1380.293764603422</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I55" si="0">G3/H3</f>
-        <v>0.19763908741439495</v>
+        <v>0.79055634965757982</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -732,11 +741,11 @@
         <v>308.14</v>
       </c>
       <c r="H4">
-        <v>1380.293764603422</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>0.22324233282944156</v>
+        <v>0.89296933131776624</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -762,11 +771,11 @@
         <v>402.15</v>
       </c>
       <c r="H5">
-        <v>1380.293764603422</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>0.2913510227408318</v>
+        <v>1.1654040909633272</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -792,11 +801,11 @@
         <v>420.97</v>
       </c>
       <c r="H6">
-        <v>1380.293764603422</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0.30498580142535869</v>
+        <v>1.2199432057014348</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -822,11 +831,11 @@
         <v>451.84</v>
       </c>
       <c r="H7">
-        <v>1380.293764603422</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0.32735060578196556</v>
+        <v>1.3094024231278623</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -852,11 +861,11 @@
         <v>576.29999999999995</v>
       </c>
       <c r="H8">
-        <v>1380.293764603422</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0.41751981699749191</v>
+        <v>1.6700792679899676</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -882,11 +891,11 @@
         <v>590.20000000000005</v>
       </c>
       <c r="H9">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0.42759013706736099</v>
+        <v>1.7103605482694415</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -912,11 +921,11 @@
         <v>561.70000000000005</v>
       </c>
       <c r="H10">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>0.40694235850683952</v>
+        <v>1.6277694340273556</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -942,11 +951,11 @@
         <v>419.88</v>
       </c>
       <c r="H11">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>0.30419611445585143</v>
+        <v>1.2167844578234039</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -972,11 +981,11 @@
         <v>425.96</v>
       </c>
       <c r="H12">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>0.30860097388209601</v>
+        <v>1.2344038955283823</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1002,11 +1011,11 @@
         <v>436.87</v>
       </c>
       <c r="H13">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>0.31650508841175529</v>
+        <v>1.2660203536470194</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1032,11 +1041,11 @@
         <v>540.33000000000004</v>
       </c>
       <c r="H14">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>0.39146014700373971</v>
+        <v>1.5658405880149564</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1062,11 +1071,11 @@
         <v>532.6</v>
       </c>
       <c r="H15">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>0.38585988987135961</v>
+        <v>1.5434395594854362</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1092,11 +1101,11 @@
         <v>551.34</v>
       </c>
       <c r="H16">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>0.39943670987922536</v>
+        <v>1.597746839516899</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1122,11 +1131,11 @@
         <v>564.22</v>
       </c>
       <c r="H17">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>0.40876805682166456</v>
+        <v>1.6350722272866558</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1152,11 +1161,11 @@
         <v>580.98</v>
       </c>
       <c r="H18">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>0.42091039958216769</v>
+        <v>1.6836415983286683</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1182,11 +1191,11 @@
         <v>489.33</v>
       </c>
       <c r="H19">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>0.3545114906322801</v>
+        <v>1.4180459625291184</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1212,11 +1221,11 @@
         <v>531.48</v>
       </c>
       <c r="H20">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>0.38504846839810403</v>
+        <v>1.5401938735924139</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1242,11 +1251,11 @@
         <v>522.47</v>
       </c>
       <c r="H21">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>0.37852087243914623</v>
+        <v>1.5140834897565827</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1272,11 +1281,11 @@
         <v>517</v>
       </c>
       <c r="H22">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>0.37455794792244257</v>
+        <v>1.4982317916897681</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1302,11 +1311,11 @@
         <v>488.05</v>
       </c>
       <c r="H23">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>0.35358415180570235</v>
+        <v>1.4143366072228072</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1332,11 +1341,11 @@
         <v>447.81</v>
       </c>
       <c r="H24">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>0.32443093744516249</v>
+        <v>1.2977237497806482</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1362,11 +1371,11 @@
         <v>457.98</v>
       </c>
       <c r="H25">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>0.3317989342157065</v>
+        <v>1.327195736862824</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1392,11 +1401,11 @@
         <v>509.58</v>
       </c>
       <c r="H26">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>0.36918228066212433</v>
+        <v>1.4767291226484951</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1422,11 +1431,11 @@
         <v>500.57</v>
       </c>
       <c r="H27">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>0.36265468470316653</v>
+        <v>1.4506187388126639</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1452,11 +1461,11 @@
         <v>533.07000000000005</v>
       </c>
       <c r="H28">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>0.3862003970967437</v>
+        <v>1.5448015883869726</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1482,11 +1491,11 @@
         <v>405.28</v>
       </c>
       <c r="H29">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>0.29361865596519832</v>
+        <v>1.1744746238607915</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1512,11 +1521,11 @@
         <v>426.95</v>
       </c>
       <c r="H30">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>0.30931821250577729</v>
+        <v>1.2372728500231074</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1542,11 +1551,11 @@
         <v>420.49</v>
       </c>
       <c r="H31">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>0.3046380493653924</v>
+        <v>1.2185521974615678</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1572,11 +1581,11 @@
         <v>510.11</v>
       </c>
       <c r="H32">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>0.36956625689500422</v>
+        <v>1.4782650275800149</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1602,11 +1611,11 @@
         <v>509.55</v>
       </c>
       <c r="H33">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>0.36916054615837646</v>
+        <v>1.4766421846335036</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1632,11 +1641,11 @@
         <v>511.84</v>
       </c>
       <c r="H34">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>0.37081961327780077</v>
+        <v>1.4832784531112009</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1662,11 +1671,11 @@
         <v>392.22</v>
       </c>
       <c r="H35">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>0.28415690200027166</v>
+        <v>1.1366276080010849</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1692,11 +1701,11 @@
         <v>449.41</v>
       </c>
       <c r="H36">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>0.32559011097838481</v>
+        <v>1.3023604439135372</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1722,11 +1731,11 @@
         <v>447.92</v>
       </c>
       <c r="H37">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>0.32451063062557156</v>
+        <v>1.2980425225022842</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -1752,11 +1761,11 @@
         <v>476.58</v>
       </c>
       <c r="H38">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>0.34527432653941525</v>
+        <v>1.381097306157659</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -1782,11 +1791,11 @@
         <v>475.22</v>
       </c>
       <c r="H39">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>0.34428902903617636</v>
+        <v>1.3771561161447035</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -1812,11 +1821,11 @@
         <v>428.6</v>
       </c>
       <c r="H40">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>0.31051361021191276</v>
+        <v>1.2420544408476493</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -1842,11 +1851,11 @@
         <v>424.36</v>
       </c>
       <c r="H41">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
-        <v>0.30744180034887375</v>
+        <v>1.2297672013954932</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -1872,11 +1881,11 @@
         <v>404.25</v>
       </c>
       <c r="H42">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>0.29287243800318646</v>
+        <v>1.1714897520127443</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -1902,11 +1911,11 @@
         <v>420.18</v>
       </c>
       <c r="H43">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
-        <v>0.3044134594933306</v>
+        <v>1.2176538379733206</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -1932,11 +1941,11 @@
         <v>523.24</v>
       </c>
       <c r="H44">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>0.37907872470200943</v>
+        <v>1.5163148988080353</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -1962,11 +1971,11 @@
         <v>493.67</v>
       </c>
       <c r="H45">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>0.35765574884114554</v>
+        <v>1.4306229953645799</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -1992,11 +2001,11 @@
         <v>431</v>
       </c>
       <c r="H46">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
-        <v>0.31225237051174615</v>
+        <v>1.2490094820469828</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -2022,11 +2031,11 @@
         <v>572.89</v>
       </c>
       <c r="H47">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
-        <v>0.41504932840481262</v>
+        <v>1.660197313619248</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -2052,11 +2061,11 @@
         <v>553.25</v>
       </c>
       <c r="H48">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
-        <v>0.40082047328450943</v>
+        <v>1.6032818931380353</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -2082,11 +2091,11 @@
         <v>550.77</v>
       </c>
       <c r="H49">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>0.3990237543080149</v>
+        <v>1.5960950172320572</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -2112,11 +2121,11 @@
         <v>517.69000000000005</v>
       </c>
       <c r="H50">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
-        <v>0.37505784150864474</v>
+        <v>1.5002313660345767</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -2142,11 +2151,11 @@
         <v>449.93</v>
       </c>
       <c r="H51">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
-        <v>0.325966842376682</v>
+        <v>1.303867369506726</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -2172,11 +2181,11 @@
         <v>430.19</v>
       </c>
       <c r="H52">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
-        <v>0.31166553891055238</v>
+        <v>1.2466621556422077</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -2202,11 +2211,11 @@
         <v>418.8</v>
       </c>
       <c r="H53">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I53">
         <f t="shared" si="0"/>
-        <v>0.30341367232092642</v>
+        <v>1.2136546892837039</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -2232,11 +2241,11 @@
         <v>397.45</v>
       </c>
       <c r="H54">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I54">
         <f t="shared" si="0"/>
-        <v>0.2879459504869919</v>
+        <v>1.1517838019479658</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -2262,11 +2271,11 @@
         <v>338.57</v>
       </c>
       <c r="H55">
-        <v>1380.29376460342</v>
+        <v>345.0734411508555</v>
       </c>
       <c r="I55">
         <f t="shared" si="0"/>
-        <v>0.24528836446441274</v>
+        <v>0.98115345785764951</v>
       </c>
     </row>
   </sheetData>
@@ -2277,102 +2286,144 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1332919-7674-4A2C-B8ED-714D722EA6DF}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>61</v>
       </c>
       <c r="B1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7.6</v>
       </c>
       <c r="B2">
         <v>7.6</v>
       </c>
-      <c r="D2">
+      <c r="C2">
+        <f>B2/2</f>
+        <v>3.8</v>
+      </c>
+      <c r="E2">
         <f>AVERAGE(A2:A7)</f>
         <v>7.6000000000000005</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <f>AVERAGE(B2:B7)</f>
         <v>7.6033333333333344</v>
       </c>
-      <c r="F2">
-        <f>(PI()*E2^2)*D2</f>
-        <v>1380.293764603422</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <f>AVERAGE(C2:C7)</f>
+        <v>3.8016666666666672</v>
+      </c>
+      <c r="H2">
+        <f>(PI()*G2^2)*E2</f>
+        <v>345.0734411508555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7.6</v>
       </c>
       <c r="B3">
         <v>7.61</v>
       </c>
-      <c r="D3">
+      <c r="C3">
+        <f t="shared" ref="C3:C7" si="0">B3/2</f>
+        <v>3.8050000000000002</v>
+      </c>
+      <c r="E3">
         <f>7.6/2.54</f>
         <v>2.9921259842519685</v>
       </c>
-      <c r="E3">
-        <f>E2/2.54</f>
+      <c r="F3">
+        <f>F2/2.54</f>
         <v>2.9934383202099739</v>
       </c>
-      <c r="F3">
-        <f>(PI()*E3^2)*D3</f>
+      <c r="G3">
+        <f>G2/2.54</f>
+        <v>1.496719160104987</v>
+      </c>
+      <c r="H3">
+        <f>(PI()*F3^2)*E3</f>
         <v>84.230693466713845</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7.6</v>
       </c>
       <c r="B4">
         <v>7.59</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3.7949999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7.6</v>
       </c>
       <c r="B5">
         <v>7.62</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7.6</v>
       </c>
       <c r="B6">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7.6</v>
       </c>
       <c r="B7">
         <v>7.6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>
